--- a/bar plot tests.xlsx
+++ b/bar plot tests.xlsx
@@ -120,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +140,22 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,9 +174,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -168,7 +186,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -3957,7 +3977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="111" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:E12"/>
     </sheetView>
   </sheetViews>
